--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N2">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q2">
-        <v>18.72151085680578</v>
+        <v>6.807514075362</v>
       </c>
       <c r="R2">
-        <v>168.493597711252</v>
+        <v>61.267626678258</v>
       </c>
       <c r="S2">
-        <v>0.006377058284549647</v>
+        <v>0.004348112379406882</v>
       </c>
       <c r="T2">
-        <v>0.006377058284549647</v>
+        <v>0.004348112379406882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N3">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O3">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P3">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q3">
-        <v>15.73650492974311</v>
+        <v>19.65800817298267</v>
       </c>
       <c r="R3">
-        <v>141.628544367688</v>
+        <v>176.922073556844</v>
       </c>
       <c r="S3">
-        <v>0.005360283681142849</v>
+        <v>0.01255601203981092</v>
       </c>
       <c r="T3">
-        <v>0.005360283681142848</v>
+        <v>0.01255601203981092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I4">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J4">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N4">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q4">
-        <v>1536.073111767052</v>
+        <v>381.41421979947</v>
       </c>
       <c r="R4">
-        <v>13824.65800590347</v>
+        <v>3432.72797819523</v>
       </c>
       <c r="S4">
-        <v>0.5232284850294044</v>
+        <v>0.2436178423477888</v>
       </c>
       <c r="T4">
-        <v>0.5232284850294046</v>
+        <v>0.2436178423477888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I5">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J5">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N5">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O5">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P5">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q5">
-        <v>1291.157657127909</v>
+        <v>1101.407028631238</v>
       </c>
       <c r="R5">
-        <v>11620.41891415118</v>
+        <v>9912.663257681139</v>
       </c>
       <c r="S5">
-        <v>0.4398035872758655</v>
+        <v>0.7034934460568956</v>
       </c>
       <c r="T5">
-        <v>0.4398035872758655</v>
+        <v>0.7034934460568955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H6">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I6">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J6">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N6">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O6">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P6">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q6">
-        <v>23.82536463979223</v>
+        <v>8.710383730620002</v>
       </c>
       <c r="R6">
-        <v>214.42828175813</v>
+        <v>78.39345357558001</v>
       </c>
       <c r="S6">
-        <v>0.008115570378945695</v>
+        <v>0.005563518034515284</v>
       </c>
       <c r="T6">
-        <v>0.008115570378945697</v>
+        <v>0.005563518034515283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H7">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I7">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J7">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N7">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O7">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P7">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q7">
-        <v>20.02658711546889</v>
+        <v>25.15291083804889</v>
       </c>
       <c r="R7">
-        <v>180.23928403922</v>
+        <v>226.37619754244</v>
       </c>
       <c r="S7">
-        <v>0.006821602927924474</v>
+        <v>0.01606572998341133</v>
       </c>
       <c r="T7">
-        <v>0.006821602927924474</v>
+        <v>0.01606572998341132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H8">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I8">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J8">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N8">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O8">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P8">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q8">
-        <v>16.41838782396023</v>
+        <v>5.781084601149001</v>
       </c>
       <c r="R8">
-        <v>147.765490415642</v>
+        <v>52.02976141034101</v>
       </c>
       <c r="S8">
-        <v>0.005592551631786327</v>
+        <v>0.003692508784025948</v>
       </c>
       <c r="T8">
-        <v>0.005592551631786328</v>
+        <v>0.003692508784025948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H9">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I9">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J9">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N9">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O9">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P9">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q9">
-        <v>13.80059776726089</v>
+        <v>16.693995352782</v>
       </c>
       <c r="R9">
-        <v>124.205379905348</v>
+        <v>150.245958175038</v>
       </c>
       <c r="S9">
-        <v>0.00470086079038089</v>
+        <v>0.01066283037414541</v>
       </c>
       <c r="T9">
-        <v>0.00470086079038089</v>
+        <v>0.01066283037414541</v>
       </c>
     </row>
   </sheetData>
